--- a/validation2.xlsx
+++ b/validation2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/redeemerdela/Downloads/CodeX/Student.PredictionModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9037D2DB-0100-0247-AE57-280B606D03A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF8EA0A-CA6F-0D45-A341-CDD1A77333B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="35">
   <si>
     <t>index</t>
   </si>
@@ -46,12 +46,6 @@
     <t>gender</t>
   </si>
   <si>
-    <t>red@gmail.com</t>
-  </si>
-  <si>
-    <t>ref@gmail.com</t>
-  </si>
-  <si>
     <t>L100</t>
   </si>
   <si>
@@ -71,6 +65,66 @@
   </si>
   <si>
     <t>reddev149@gmail.com</t>
+  </si>
+  <si>
+    <t>john.doe@example.com</t>
+  </si>
+  <si>
+    <t>emily.smith@emailprovider.com</t>
+  </si>
+  <si>
+    <t>michael.jones@testmail.com</t>
+  </si>
+  <si>
+    <t>sarah.wilson@example.org</t>
+  </si>
+  <si>
+    <t>alexander.brown@emailservice.net</t>
+  </si>
+  <si>
+    <t>jessica.miller@testmail.net</t>
+  </si>
+  <si>
+    <t>david.white@example.net</t>
+  </si>
+  <si>
+    <t>laura.johnson@emailprovider.org</t>
+  </si>
+  <si>
+    <t>matthew.thomas@testmail.org</t>
+  </si>
+  <si>
+    <t>emma.wilson@example.com</t>
+  </si>
+  <si>
+    <t>james.taylor@emailservice.com</t>
+  </si>
+  <si>
+    <t>olivia.anderson@testmail.net</t>
+  </si>
+  <si>
+    <t>daniel.moore@example.org</t>
+  </si>
+  <si>
+    <t>sophia.jackson@emailprovider.net</t>
+  </si>
+  <si>
+    <t>ethan.martin@testmail.com</t>
+  </si>
+  <si>
+    <t>mia.thompson@example.net</t>
+  </si>
+  <si>
+    <t>noah.davis@emailservice.org</t>
+  </si>
+  <si>
+    <t>ava.harris@testmail.net</t>
+  </si>
+  <si>
+    <t>william.clark@example.com</t>
+  </si>
+  <si>
+    <t>isabella.lewis@emailprovider.com</t>
   </si>
 </sst>
 </file>
@@ -163,7 +217,7 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -474,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -486,7 +540,7 @@
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -530,16 +584,16 @@
         <v>10823344</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>2.02</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -556,16 +610,16 @@
         <v>10824499</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
       <c r="G3">
         <v>2.06</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -582,16 +636,16 @@
         <v>10825654</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>2.1</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -608,16 +662,16 @@
         <v>10826809</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>2.14</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -634,16 +688,16 @@
         <v>10827964</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
         <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
       </c>
       <c r="G6">
         <v>2.1800000000000002</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -660,16 +714,16 @@
         <v>10829119</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
         <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
       </c>
       <c r="G7">
         <v>2.2200000000000002</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -686,16 +740,16 @@
         <v>10830274</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>2.2599999999999998</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -712,16 +766,16 @@
         <v>10831429</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>2.2999999999999998</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -738,16 +792,16 @@
         <v>10832584</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
         <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
       </c>
       <c r="G10">
         <v>3.1</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -764,16 +818,16 @@
         <v>10833739</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
         <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
       </c>
       <c r="G11">
         <v>3.15</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -790,16 +844,16 @@
         <v>10834894</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>3.2</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -816,16 +870,16 @@
         <v>10836049</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13">
         <v>3.25</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -842,16 +896,16 @@
         <v>10837204</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
       </c>
       <c r="G14">
         <v>3.3</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -868,16 +922,16 @@
         <v>10838359</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
         <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
       </c>
       <c r="G15">
         <v>3.35</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -894,16 +948,16 @@
         <v>10839514</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>3.4</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -920,16 +974,16 @@
         <v>10840669</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17">
         <v>3.45</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -946,16 +1000,16 @@
         <v>10841824</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
         <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
       </c>
       <c r="G18">
         <v>3.5</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -972,16 +1026,16 @@
         <v>10842979</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
         <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
       </c>
       <c r="G19">
         <v>3.55</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -998,16 +1052,16 @@
         <v>10844134</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G20">
         <v>3.6</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1024,16 +1078,16 @@
         <v>10845289</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G21">
         <v>3.65</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1050,42 +1104,2232 @@
         <v>10846444</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
         <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
       </c>
       <c r="G22">
         <v>3.7</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>10847599</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>2.02</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>10848754</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>2.06</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>10849909</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>2.1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>10851064</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>2.14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>10852219</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>10853374</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>10854529</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>10855684</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>10856839</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>3.1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>10857994</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <v>3.15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>10859149</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>3.2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>10860304</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34">
+        <v>3.25</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>10861459</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35">
+        <v>3.3</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>10862614</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36">
+        <v>3.35</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>10863769</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>3.4</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>10864924</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <v>3.45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>10866079</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <v>3.5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>10867234</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>3.55</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>10868389</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>3.6</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>10869544</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42">
+        <v>3.65</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>10870699</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43">
+        <v>3.7</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>10871854</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44">
+        <v>2.02</v>
+      </c>
+      <c r="H44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>10873009</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>2.06</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>10874164</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>2.1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>10875319</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47">
+        <v>2.14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>10876474</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>10877629</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>10878784</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>10879939</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>10881094</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52">
+        <v>3.1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>10882249</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53">
+        <v>3.15</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>10883404</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>3.2</v>
+      </c>
+      <c r="H54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>10884559</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55">
+        <v>3.25</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>10885714</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56">
+        <v>3.3</v>
+      </c>
+      <c r="H56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>10886869</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57">
+        <v>3.35</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>10888024</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>3.4</v>
+      </c>
+      <c r="H58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>10889179</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59">
+        <v>3.45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>10890334</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60">
+        <v>3.5</v>
+      </c>
+      <c r="H60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>10891489</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61">
+        <v>3.55</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>10892644</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>3.6</v>
+      </c>
+      <c r="H62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>10893799</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63">
+        <v>3.65</v>
+      </c>
+      <c r="H63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>10894954</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64">
+        <v>3.7</v>
+      </c>
+      <c r="H64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>10896109</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65">
+        <v>2.02</v>
+      </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>10897264</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66">
+        <v>2.06</v>
+      </c>
+      <c r="H66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>10898419</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67">
+        <v>2.1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>10899574</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68">
+        <v>2.14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>10900729</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>10901884</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>10903039</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>10904194</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>10905349</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73">
+        <v>3.1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>10906504</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74">
+        <v>3.15</v>
+      </c>
+      <c r="H74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>10907659</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75">
+        <v>3.2</v>
+      </c>
+      <c r="H75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>10908814</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76">
+        <v>3.25</v>
+      </c>
+      <c r="H76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>10909969</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77">
+        <v>3.3</v>
+      </c>
+      <c r="H77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>10911124</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78">
+        <v>3.35</v>
+      </c>
+      <c r="H78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>10912279</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79">
+        <v>3.4</v>
+      </c>
+      <c r="H79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>10913434</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80">
+        <v>3.45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>10914589</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F81" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81">
+        <v>3.5</v>
+      </c>
+      <c r="H81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>10915744</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82">
+        <v>3.55</v>
+      </c>
+      <c r="H82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>10916899</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83">
+        <v>3.6</v>
+      </c>
+      <c r="H83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>10918054</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84">
+        <v>3.65</v>
+      </c>
+      <c r="H84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>10919209</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85">
+        <v>3.7</v>
+      </c>
+      <c r="H85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>10920364</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86">
+        <v>2.02</v>
+      </c>
+      <c r="H86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>10921519</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87">
+        <v>2.06</v>
+      </c>
+      <c r="H87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>10922674</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88">
+        <v>2.1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>10923829</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89">
+        <v>2.14</v>
+      </c>
+      <c r="H89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>10924984</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>10926139</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F91" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>10927294</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>10928449</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>10929604</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F94" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94">
+        <v>3.1</v>
+      </c>
+      <c r="H94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>10930759</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95">
+        <v>3.15</v>
+      </c>
+      <c r="H95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>10931914</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96">
+        <v>3.2</v>
+      </c>
+      <c r="H96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>10933069</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97">
+        <v>3.25</v>
+      </c>
+      <c r="H97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>10934224</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F98" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98">
+        <v>3.3</v>
+      </c>
+      <c r="H98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>10935379</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F99" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99">
+        <v>3.35</v>
+      </c>
+      <c r="H99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>10936534</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100">
+        <v>3.4</v>
+      </c>
+      <c r="H100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>10937689</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F101" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101">
+        <v>3.45</v>
+      </c>
+      <c r="H101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>10938844</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102">
+        <v>3.5</v>
+      </c>
+      <c r="H102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>10939999</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103">
+        <v>3.55</v>
+      </c>
+      <c r="H103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>10941154</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104">
+        <v>3.6</v>
+      </c>
+      <c r="H104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>10942309</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105">
+        <v>3.65</v>
+      </c>
+      <c r="H105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>10943464</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106">
+        <v>3.7</v>
+      </c>
+      <c r="H106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>10944619</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F107" t="s">
+        <v>8</v>
+      </c>
+      <c r="G107">
+        <v>2.02</v>
+      </c>
+      <c r="H107" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{CEA66A81-3D18-2540-A223-CC5753FCFBF2}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{311C8B00-EDE2-CC42-B345-1158DF40DB98}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{149EDB70-784B-C04E-9E12-FFF191A72BEF}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{0CD78FA7-396A-7640-AF05-42C45C6FD49E}"/>
-    <hyperlink ref="E8" r:id="rId5" xr:uid="{97586CD7-A6EE-BA43-986D-B0B4008A48BC}"/>
-    <hyperlink ref="E10" r:id="rId6" xr:uid="{AD8CD469-CD31-1C49-87D0-FB60D372FC7A}"/>
-    <hyperlink ref="E12" r:id="rId7" xr:uid="{36FFC3D4-5FC1-6D4B-8CAA-155F47735187}"/>
-    <hyperlink ref="E14" r:id="rId8" xr:uid="{89F36A56-DDE9-DA48-893C-FF6D5C34B9DB}"/>
-    <hyperlink ref="E16" r:id="rId9" xr:uid="{7A893062-DFE4-D946-9FD2-0333289F8D3C}"/>
-    <hyperlink ref="E18" r:id="rId10" xr:uid="{81AB5F44-5046-584E-9641-913BEC3CCC74}"/>
-    <hyperlink ref="E20" r:id="rId11" xr:uid="{C25BC9D5-8783-9042-8DD6-6339865B62EB}"/>
-    <hyperlink ref="E22" r:id="rId12" display="ref@gmail.com" xr:uid="{8FE910BE-51EB-0F4C-BDCE-310F4A719389}"/>
-    <hyperlink ref="E5" r:id="rId13" xr:uid="{30865960-2EFE-1C4F-A66C-A884E30EE3B8}"/>
-    <hyperlink ref="E7" r:id="rId14" xr:uid="{DCDF3C6A-77D2-1A46-A5C8-09FF5E22398D}"/>
-    <hyperlink ref="E9" r:id="rId15" xr:uid="{925338A2-14DE-A345-A5BC-B9094AA32C16}"/>
-    <hyperlink ref="E11" r:id="rId16" xr:uid="{A6268DA6-F437-594E-B350-F6DCB225091F}"/>
-    <hyperlink ref="E13" r:id="rId17" xr:uid="{B740C290-E23D-0043-81DA-08F72CF3D36D}"/>
-    <hyperlink ref="E15" r:id="rId18" xr:uid="{5346FC07-76CA-3C47-8A87-90E6506CA736}"/>
-    <hyperlink ref="E17" r:id="rId19" xr:uid="{1FA2D0D9-FE76-8A4B-A804-FBC0D97882FC}"/>
-    <hyperlink ref="E19" r:id="rId20" xr:uid="{168426A9-3F4C-2443-A1C0-E254F79F4467}"/>
-    <hyperlink ref="E21" r:id="rId21" xr:uid="{80C34114-AB43-3943-B479-8D4BE1FDC5D8}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
